--- a/data/trans_bre/P13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Edad-trans_bre.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.506312552455483</v>
+        <v>-1.438133886425791</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.364780878527158</v>
+        <v>-2.656656728930941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3090131510554544</v>
+        <v>0.2947493107033517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.051744231796186</v>
+        <v>-4.198750229820244</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5562266076899598</v>
+        <v>-0.497858148260914</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7016817620098195</v>
+        <v>-0.7412350995796787</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
@@ -688,22 +688,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.454386695050562</v>
+        <v>2.321010114090261</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.55078251190693</v>
+        <v>1.553880066620216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.852105355667738</v>
+        <v>3.106090231437717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3647054014434295</v>
+        <v>0.3617020858010443</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.424070115674416</v>
+        <v>2.042134839310007</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.06714963086084</v>
+        <v>1.129870148214566</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -729,7 +729,7 @@
         <v>-0.2738363565869453</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.165186017252716</v>
+        <v>-1.165186017252717</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9091718067091784</v>
@@ -741,7 +741,7 @@
         <v>-0.1475054105743323</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2626738791137226</v>
+        <v>-0.2626738791137227</v>
       </c>
     </row>
     <row r="8">
@@ -752,28 +752,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.3643987493981007</v>
+        <v>-0.1660474345328004</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1990595549311239</v>
+        <v>-0.1533613566488324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.810367099121683</v>
+        <v>-1.617955393586465</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.272372182621368</v>
+        <v>-4.407915478319728</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.325919090788839</v>
+        <v>-0.21861258747839</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0745580276095107</v>
+        <v>-0.101195316847599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6885331363483108</v>
+        <v>-0.6618518767242398</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6570263566085253</v>
+        <v>-0.6925916083066247</v>
       </c>
     </row>
     <row r="9">
@@ -784,28 +784,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.776552710006883</v>
+        <v>2.698640959768182</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.758688563282945</v>
+        <v>3.743422394274351</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.228243631407441</v>
+        <v>1.327635307104621</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.650623436920744</v>
+        <v>1.338144543745151</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.599684967450155</v>
+        <v>4.045195116109722</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.442332200767616</v>
+        <v>2.470090025825737</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.219517875449305</v>
+        <v>1.321597312140965</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6731219181998912</v>
+        <v>0.5391560573828227</v>
       </c>
     </row>
     <row r="10">
@@ -852,28 +852,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.996833972656012</v>
+        <v>-2.977751173483181</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1675373163785591</v>
+        <v>-0.05738381553332956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.685450115079264</v>
+        <v>-2.406755391641032</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.167447643581863</v>
+        <v>-2.259780127930221</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5664715707212762</v>
+        <v>-0.5485798419130313</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01889022001018757</v>
+        <v>-0.05088360661776643</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5859950527665226</v>
+        <v>-0.5655254777564434</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5060077816417635</v>
+        <v>-0.5229582307447553</v>
       </c>
     </row>
     <row r="12">
@@ -884,28 +884,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.239451181909499</v>
+        <v>1.195165060328941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.065380638646914</v>
+        <v>5.078339995190118</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.292012974949986</v>
+        <v>1.427934552627472</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.448874971086586</v>
+        <v>1.593038431557777</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4117244010744018</v>
+        <v>0.5345709793501445</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.571898099958941</v>
+        <v>1.661317489972621</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5729457350301256</v>
+        <v>0.6196919437519274</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7251129548760584</v>
+        <v>0.763689816373135</v>
       </c>
     </row>
     <row r="13">
@@ -952,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5572090549620726</v>
+        <v>0.6952675012719395</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.624125295912638</v>
+        <v>1.423560050278868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.307354822793306</v>
+        <v>-0.326315908796994</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.713168311416119</v>
+        <v>-1.497250968333555</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1413753659387642</v>
+        <v>0.1468925560171256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2022567107073257</v>
+        <v>0.2554081144446289</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1024433414773482</v>
+        <v>-0.08207726848615493</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2960135317753305</v>
+        <v>-0.2609939878161244</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.532626759024773</v>
+        <v>4.776207381797099</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.439717567758121</v>
+        <v>6.976434141617641</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.812571834068383</v>
+        <v>4.786959137418818</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.691210228146364</v>
+        <v>2.774271890437077</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.916118126344762</v>
+        <v>7.392526537634018</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.265061178581958</v>
+        <v>2.312151758204569</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.59593319983157</v>
+        <v>1.601140523919775</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9093743400101956</v>
+        <v>0.9358858268419261</v>
       </c>
     </row>
     <row r="16">
@@ -1029,7 +1029,7 @@
         <v>3.434806325751689</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.976430379189481</v>
+        <v>1.976430379189485</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6126032097884715</v>
@@ -1041,7 +1041,7 @@
         <v>0.8470095792260179</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3106671300509469</v>
+        <v>0.3106671300509475</v>
       </c>
     </row>
     <row r="17">
@@ -1052,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8243706529514198</v>
+        <v>-0.9810787498568559</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.262619251170636</v>
+        <v>2.269156821520598</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5456103936050681</v>
+        <v>0.4537632715481478</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.07332441281077</v>
+        <v>-0.6778242377037813</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2404477324777815</v>
+        <v>-0.2767666564865972</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3803521452860468</v>
+        <v>0.3499165548915935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08148070034943812</v>
+        <v>0.04512082340180724</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1363172805747783</v>
+        <v>-0.082383341416842</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.768338173243918</v>
+        <v>4.676463466463106</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.029969616278088</v>
+        <v>8.987602055056442</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.41441659716054</v>
+        <v>6.774334936382337</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.27899900250906</v>
+        <v>4.586158311269919</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.293566795008836</v>
+        <v>2.210707833080277</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.253857734605153</v>
+        <v>3.047889912709148</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.343086040710198</v>
+        <v>2.363341411917708</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8318861247118533</v>
+        <v>0.9298696061238887</v>
       </c>
     </row>
     <row r="19">
@@ -1152,28 +1152,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.677079834818935</v>
+        <v>-1.776800101169692</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.033857656416151</v>
+        <v>2.401570527744191</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.0802869513427</v>
+        <v>-1.473989155244045</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.9558021439621213</v>
+        <v>-1.426862620953375</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1960867446217204</v>
+        <v>-0.2245261284484443</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2369608590001035</v>
+        <v>0.2042501709989032</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2168880020057846</v>
+        <v>-0.2550782469096691</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1214412627627854</v>
+        <v>-0.1678530760782009</v>
       </c>
     </row>
     <row r="21">
@@ -1184,28 +1184,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.440774740751898</v>
+        <v>6.088766185022813</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.11195382378378</v>
+        <v>13.02027538287227</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.502988364072016</v>
+        <v>5.190189756422646</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.938845428399823</v>
+        <v>4.476060516249464</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.569800535488062</v>
+        <v>1.483206572213961</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.182296514698875</v>
+        <v>2.072730551173444</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.159275056465306</v>
+        <v>2.159894605138761</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9214991305940466</v>
+        <v>0.7970377110197487</v>
       </c>
     </row>
     <row r="22">
@@ -1252,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.202293162529275</v>
+        <v>-3.478619086116542</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.469195803945841</v>
+        <v>6.069395508888624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.46183631998268</v>
+        <v>0.9072167578944221</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.735586892971796</v>
+        <v>7.678368946199324</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2247401082839495</v>
+        <v>-0.2624000407422408</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2456605157995341</v>
+        <v>0.3306770110245502</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09011978900177349</v>
+        <v>0.07482561121885364</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4018141055873208</v>
+        <v>0.4683205807693721</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.194634350323778</v>
+        <v>7.982729273105201</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.43083655952942</v>
+        <v>18.87431295322144</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.79999466546837</v>
+        <v>11.57917700201139</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.0767614802203</v>
+        <v>16.43640573954813</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.338940703406068</v>
+        <v>1.119208588015177</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.684567639085382</v>
+        <v>1.836243663554006</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.756987241933187</v>
+        <v>1.709231425154063</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.432274397608535</v>
+        <v>1.466253039505214</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1329,7 @@
         <v>2.063451115628804</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.229797271044722</v>
+        <v>2.229797271044719</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5220050298301105</v>
@@ -1341,7 +1341,7 @@
         <v>0.5955102515546855</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4266244865859347</v>
+        <v>0.426624486585934</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7663677792226211</v>
+        <v>0.7826818611076947</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.456448160847164</v>
+        <v>3.446093896806405</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.043781817146162</v>
+        <v>0.9306149804723882</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.240152462128127</v>
+        <v>1.167884929247262</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2106028672074863</v>
+        <v>0.2066598898305871</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6447114556405001</v>
+        <v>0.6570231146747461</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2598441225127502</v>
+        <v>0.23358147862419</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2087999992652616</v>
+        <v>0.201132379901188</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.732348887142151</v>
+        <v>2.690182069937379</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.941531458576598</v>
+        <v>5.974859623409996</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.161696657731896</v>
+        <v>3.051619240141233</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.261897536189963</v>
+        <v>3.202901845220921</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9715515318481817</v>
+        <v>0.9634496529898391</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.483663272343014</v>
+        <v>1.474916295449766</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.068676784959778</v>
+        <v>1.012239108022479</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7007086458976868</v>
+        <v>0.6891754813565468</v>
       </c>
     </row>
     <row r="28">
